--- a/excel project 1 sales analysis 1.xlsx
+++ b/excel project 1 sales analysis 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1CC490-D2DC-4C61-93CC-695F1AA58003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD11D4-3AED-4919-B071-F90E2FB7387B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{066F390F-3F57-424A-8F63-D79F6E363C66}"/>
   </bookViews>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -333,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -341,47 +341,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,7 +413,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[excel project 1 sales analysis 1.xlsx]Sheet3!PivotTable2</c:name>
+    <c:name>[excel project 1 sales analysis 1 (1).xlsx]Sheet3!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -474,7 +473,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -902,7 +901,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[excel project 1 sales analysis 1.xlsx]Sheet4!PivotTable3</c:name>
+    <c:name>[excel project 1 sales analysis 1 (1).xlsx]Sheet4!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -962,7 +961,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1395,7 +1394,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[excel project 1 sales analysis 1.xlsx]Sheet6!PivotTable5</c:name>
+    <c:name>[excel project 1 sales analysis 1 (1).xlsx]Sheet6!PivotTable5</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -1798,7 +1797,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[excel project 1 sales analysis 1.xlsx]Sheet3!PivotTable2</c:name>
+    <c:name>[excel project 1 sales analysis 1 (1).xlsx]Sheet3!PivotTable2</c:name>
     <c:fmtId val="13"/>
   </c:pivotSource>
   <c:chart>
@@ -1822,17 +1821,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
+              <a:rPr lang="en-IN" b="1"/>
               <a:t>Sales</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> BY Region</a:t>
+              <a:rPr lang="en-IN" b="1" baseline="0"/>
+              <a:t> By Region</a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN"/>
+            <a:endParaRPr lang="en-IN" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29310729815489484"/>
+          <c:y val="0.1571568518723892"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2391,7 +2398,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[excel project 1 sales analysis 1.xlsx]Sheet6!PivotTable5</c:name>
+    <c:name>[excel project 1 sales analysis 1 (1).xlsx]Sheet6!PivotTable5</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -2415,14 +2422,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
+              <a:rPr lang="en-IN" b="1"/>
               <a:t>Product</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
+              <a:rPr lang="en-IN" b="1" baseline="0"/>
               <a:t> Profit</a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN"/>
+            <a:endParaRPr lang="en-IN" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2451,7 +2458,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2908,7 +2915,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[excel project 1 sales analysis 1.xlsx]Sheet5!PivotTable4</c:name>
+    <c:name>[excel project 1 sales analysis 1 (1).xlsx]Sheet5!PivotTable4</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -2932,14 +2939,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Top</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> Products By Sales</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3465,7 +3472,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[excel project 1 sales analysis 1.xlsx]Sheet4!PivotTable3</c:name>
+    <c:name>[excel project 1 sales analysis 1 (1).xlsx]Sheet4!PivotTable3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -3489,14 +3496,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
+              <a:rPr lang="en-IN" b="1"/>
               <a:t>Region-wise</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
+              <a:rPr lang="en-IN" b="1" baseline="0"/>
               <a:t> Sales Analysis</a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN"/>
+            <a:endParaRPr lang="en-IN" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3525,7 +3532,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3860,7 +3867,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3925,7 +3932,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -8132,8 +8139,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>121921</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Months (Date)">
@@ -8156,7 +8163,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8210,8 +8217,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Region">
@@ -8234,7 +8241,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8288,8 +8295,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Category">
@@ -8312,7 +8319,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8366,8 +8373,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Product">
@@ -8390,7 +8397,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8661,7 +8668,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB318320-7B46-4334-97F7-2ABD2CF9BBBE}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB318320-7B46-4334-97F7-2ABD2CF9BBBE}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -8797,7 +8804,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CDCFA-7350-4B2F-89E4-3D96E552025E}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CDCFA-7350-4B2F-89E4-3D96E552025E}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -8916,7 +8923,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D7DE305-78B7-4D0B-8D12-573685C23EED}" name="PivotTable4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D7DE305-78B7-4D0B-8D12-573685C23EED}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -9026,7 +9033,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{455F6CCE-51D1-413B-8A1C-96A66783E34D}" name="PivotTable5" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{455F6CCE-51D1-413B-8A1C-96A66783E34D}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -9571,7 +9578,7 @@
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>105000</v>
       </c>
     </row>
@@ -9579,7 +9586,7 @@
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>95500</v>
       </c>
     </row>
@@ -9587,7 +9594,7 @@
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>105000</v>
       </c>
     </row>
@@ -9595,7 +9602,7 @@
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>305500</v>
       </c>
     </row>
@@ -9631,7 +9638,7 @@
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>130000</v>
       </c>
     </row>
@@ -9639,7 +9646,7 @@
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>70000</v>
       </c>
     </row>
@@ -9647,7 +9654,7 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>69500</v>
       </c>
     </row>
@@ -9655,7 +9662,7 @@
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>36000</v>
       </c>
     </row>
@@ -9663,7 +9670,7 @@
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>305500</v>
       </c>
     </row>
@@ -9699,7 +9706,7 @@
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>173000</v>
       </c>
     </row>
@@ -9707,7 +9714,7 @@
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>90000</v>
       </c>
     </row>
@@ -9715,7 +9722,7 @@
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>27000</v>
       </c>
     </row>
@@ -9723,7 +9730,7 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>15500</v>
       </c>
     </row>
@@ -9731,7 +9738,7 @@
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>305500</v>
       </c>
     </row>
@@ -9767,7 +9774,7 @@
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>25500</v>
       </c>
     </row>
@@ -9775,7 +9782,7 @@
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>14500</v>
       </c>
     </row>
@@ -9783,7 +9790,7 @@
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>4500</v>
       </c>
     </row>
@@ -9791,7 +9798,7 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>2700</v>
       </c>
     </row>
@@ -9799,7 +9806,7 @@
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>47200</v>
       </c>
     </row>
@@ -10116,106 +10123,105 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection sqref="A1:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" customWidth="1"/>
     <col min="4" max="4" width="7.21875" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="14" max="14" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="8"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="10"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="10"/>
-      <c r="B4" s="35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="32">
         <f>GETPIVOTDATA("Sales",Sheet3!$A$3)</f>
         <v>305500</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="36">
+      <c r="C4" s="8"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="33">
         <f>GETPIVOTDATA("Profit",Sheet6!$A$3)</f>
         <v>47200</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="37">
-        <f>B4/E4</f>
-        <v>6.4724576271186445</v>
-      </c>
-      <c r="I4" s="26"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="69" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
